--- a/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa P1" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
-    <sheet name="Desenho do Mapa P2" sheetId="20" r:id="rId5"/>
-    <sheet name="Mapeamento P2 - Fluxo 1" sheetId="18" r:id="rId6"/>
-    <sheet name="Mapeamento P2 - Fluxo 2 RT" sheetId="22" r:id="rId7"/>
-    <sheet name="Mapeamento P2 - Fluxo 3 RT" sheetId="23" r:id="rId8"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId9"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho - ATU_ODS_REM_DOCENTE 1" sheetId="20" r:id="rId5"/>
+    <sheet name="Map - ATU_ODS_REMUN_DOCENTE F1" sheetId="18" r:id="rId6"/>
+    <sheet name="Desenho - ATU_ODS_REM_DOCEN RT" sheetId="24" r:id="rId7"/>
+    <sheet name="Map - ATU_ODS_REM_DOCENTE RT1" sheetId="22" r:id="rId8"/>
+    <sheet name="Map - ATU_ODS_REM_DOCENTE RT2" sheetId="23" r:id="rId9"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mapeamento P1'!$B$3:$AC$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mapeamento P2 - Fluxo 1'!$B$3:$AC$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Mapeamento P2 - Fluxo 2 RT'!$B$3:$AC$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mapeamento P2 - Fluxo 3 RT'!$B$3:$AC$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Map - ATU_ODS_REM_DOCENTE RT1'!$B$3:$AC$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Map - ATU_ODS_REM_DOCENTE RT2'!$B$3:$AC$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Map - ATU_ODS_REMUN_DOCENTE F1'!$B$3:$AC$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mapeam. - ODS_REMUNER_DOCENTE'!$B$3:$AC$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1315,25 +1316,36 @@
     <t>REMUNERACAO_DOCENTE</t>
   </si>
   <si>
+    <t>Preencher com o valor fixo 'PRO_RETROATIVO_TURMA_ONLINE'</t>
+  </si>
+  <si>
+    <t>Preencher com o valor fixo 'S'</t>
+  </si>
+  <si>
+    <t>ADD_MONTHS(TRUNC(P_DT_COMPETENCIA,'MM'),-1);</t>
+  </si>
+  <si>
+    <t>V_DT_COMPETENCIA_1</t>
+  </si>
+  <si>
+    <t>V_DT_COMPETENCIA_2</t>
+  </si>
+  <si>
+    <t>ADD_MONTHS(TRUNC(P_DT_COMPETENCIA,'MM'),-2);</t>
+  </si>
+  <si>
+    <t>V_DT_ULTIMA_GERACAO</t>
+  </si>
+  <si>
+    <t>SELECT MAX(TRUNC(CPP.DT_INICIO_GERACAO))
+            INTO V_DT_ULTIMA_GERACAO
+            FROM SIA.CONTROLE_PAGAMENTO_PROFESSOR CPP
+           WHERE CPP.NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
+             AND CPP.COD_INSTITUICAO = COD_INSTITUICAO;</t>
+  </si>
+  <si>
     <t>NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
-AND TRUNC(P_DT_COMPETENCIA, 'MM') BETWEEN TRUNC(VAP.DT_INICIO_ALOCACAO, 'MM') AND TRUNC(VAP.DT_FIM_ALOCACAO, 'MM')
-AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
-AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
-AND IND_PAGAMENTO = 'S'
-AND NVL(IND_PAGAMENTO_ALOCACAO,'S') = 'S' 
-AND TABELA = 'HTV'
-AND TIPO_CURSO IN (4,11)
-AND IND_TIPO_SALARIO = 'H'
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>Preencher com o valor fixo 'PRO_RETROATIVO_TURMA_ONLINE'</t>
-  </si>
-  <si>
-    <t>Preencher com o valor fixo 'S'</t>
-  </si>
-  <si>
-    <t>NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
+AND IND_APTO_PAGAMENTO = 1
 AND AND V_DT_COMPETENCIA_1 BETWEEN TRUNC(DT_INICIO_ALOCACAO,'MM') AND TRUNC(DT_FIM_ALOCACAO,'MM') 
 AND NVL(VAPND_SUBSTITUICAO_PROF, 'N') = 'N'
 AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
@@ -1348,29 +1360,8 @@
 THEN IND_APTO_PAGAMENTO = 2</t>
   </si>
   <si>
-    <t>ADD_MONTHS(TRUNC(P_DT_COMPETENCIA,'MM'),-1);</t>
-  </si>
-  <si>
-    <t>V_DT_COMPETENCIA_1</t>
-  </si>
-  <si>
-    <t>V_DT_COMPETENCIA_2</t>
-  </si>
-  <si>
-    <t>ADD_MONTHS(TRUNC(P_DT_COMPETENCIA,'MM'),-2);</t>
-  </si>
-  <si>
-    <t>V_DT_ULTIMA_GERACAO</t>
-  </si>
-  <si>
-    <t>SELECT MAX(TRUNC(CPP.DT_INICIO_GERACAO))
-            INTO V_DT_ULTIMA_GERACAO
-            FROM SIA.CONTROLE_PAGAMENTO_PROFESSOR CPP
-           WHERE CPP.NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
-             AND CPP.COD_INSTITUICAO = COD_INSTITUICAO;</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
+IND_APTO_PAGAMENTO = '
 AND V_DT_COMPETENCIA_2 BETWEEN TRUNC(VAP.DT_INICIO_ALOCACAO,'MM') AND TRUNC(VAP.DT_FIM_ALOCACAO,'MM')
 AND NVL(VAP.IND_SUBSTITUICAO_PROF, 'N') = 'N'
 AND NVL(VAP.QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
@@ -1381,6 +1372,19 @@
 AND VAP.TIPO_CURSO IN (4,11)
 AND VAP.IND_TIPO_SALARIO = 'H'
 AND VAP.COD_INSTITUICAO NOT IN (1022,1809,1464) </t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO = 'PRO_APURACAO_TURMA_ONLINE'
+AND IND_APTO_PAGAMENTO = 1
+AND TRUNC(P_DT_COMPETENCIA, 'MM') BETWEEN TRUNC(VAP.DT_INICIO_ALOCACAO, 'MM') AND TRUNC(VAP.DT_FIM_ALOCACAO, 'MM')
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
+AND IND_PAGAMENTO = 'S'
+AND NVL(IND_PAGAMENTO_ALOCACAO,'S') = 'S' 
+AND TABELA = 'HTV'
+AND TIPO_CURSO IN (4,11)
+AND IND_TIPO_SALARIO = 'H'
+THEN IND_APTO_PAGAMENTO = 2</t>
   </si>
 </sst>
 </file>
@@ -2343,6 +2347,63 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2352,62 +2413,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2415,6 +2443,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,51 +2482,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2562,6 +2566,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,15 +2601,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2766,7 +2770,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2789,14 +2793,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2839,7 +2843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2862,14 +2866,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3187,7 +3191,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3242,28 +3246,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="139"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
@@ -3272,17 +3276,17 @@
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146" t="s">
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
@@ -3291,24 +3295,24 @@
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="151" t="s">
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="134"/>
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
@@ -3317,9 +3321,9 @@
     <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="134"/>
       <c r="H14" s="135"/>
       <c r="I14" s="135"/>
@@ -3328,9 +3332,9 @@
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="134"/>
       <c r="H15" s="135"/>
       <c r="I15" s="135"/>
@@ -3339,9 +3343,9 @@
     <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="134"/>
       <c r="H16" s="135"/>
       <c r="I16" s="135"/>
@@ -3350,34 +3354,27 @@
     <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3388,11 +3385,278 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Y23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="2:25" ht="18">
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="25.5">
+      <c r="B7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="25.5">
+      <c r="B8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="25.5">
+      <c r="B9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="25.5">
+      <c r="B10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="25.5">
+      <c r="B11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="25.5">
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="25.5">
+      <c r="B13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="25.5">
+      <c r="B14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="25.5">
+      <c r="B15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="25.5">
+      <c r="B16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="25.5">
+      <c r="B17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="25.5">
+      <c r="B18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="25.5">
+      <c r="B19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="25.5">
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="25.5">
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="25.5">
+      <c r="B22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="25.5">
+      <c r="B23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3445,17 +3709,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
@@ -3464,41 +3728,41 @@
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
@@ -3512,17 +3776,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
@@ -3534,16 +3798,16 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="170" t="s">
+      <c r="F12" s="165"/>
+      <c r="G12" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="77" t="s">
@@ -3553,12 +3817,12 @@
       <c r="D13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="2"/>
@@ -3572,11 +3836,11 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="39" t="s">
@@ -3629,17 +3893,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="44" t="s">
@@ -3651,62 +3915,62 @@
       <c r="D23" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169" t="s">
+      <c r="F23" s="160"/>
+      <c r="G23" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="85" t="s">
@@ -3718,16 +3982,16 @@
       <c r="D29" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E29" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="159"/>
-      <c r="G29" s="158" t="s">
+      <c r="F29" s="174"/>
+      <c r="G29" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="159"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="87" t="s">
@@ -3735,15 +3999,23 @@
       </c>
       <c r="C30" s="88"/>
       <c r="D30" s="89"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="B6:J6"/>
@@ -3760,14 +4032,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3781,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3791,9 +4055,6 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3"/>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -6519,7 +6780,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="22529" r:id="rId3"/>
+    <oleObject progId="Visio.Drawing.11" shapeId="22530" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -6532,7 +6793,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6732,7 +6993,7 @@
       <c r="L4" s="118"/>
       <c r="M4" s="118"/>
       <c r="N4" s="189" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O4" s="183"/>
       <c r="P4" s="183"/>
@@ -7221,11 +7482,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="AC4:AC12"/>
     <mergeCell ref="N4:N12"/>
     <mergeCell ref="O4:O12"/>
@@ -7240,6 +7496,11 @@
     <mergeCell ref="X4:X12"/>
     <mergeCell ref="Y4:Y12"/>
     <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7250,13 +7511,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="26626" r:id="rId3"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -7438,7 +7719,7 @@
       <c r="L4" s="126"/>
       <c r="M4" s="126"/>
       <c r="N4" s="127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O4" s="119"/>
       <c r="P4" s="119"/>
@@ -7446,10 +7727,10 @@
       <c r="R4" s="128"/>
       <c r="S4" s="128"/>
       <c r="T4" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V4" s="118"/>
       <c r="W4" s="118"/>
@@ -7479,7 +7760,7 @@
       <c r="L5" s="126"/>
       <c r="M5" s="126"/>
       <c r="N5" s="127" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O5" s="119"/>
       <c r="P5" s="119"/>
@@ -7487,10 +7768,10 @@
       <c r="R5" s="128"/>
       <c r="S5" s="128"/>
       <c r="T5" s="119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U5" s="118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V5" s="118"/>
       <c r="W5" s="118"/>
@@ -7536,17 +7817,17 @@
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
       <c r="N6" s="189" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O6" s="183"/>
       <c r="P6" s="183"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="213" t="s">
+      <c r="R6" s="204" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="204" t="s">
         <v>187</v>
       </c>
       <c r="T6" s="201" t="s">
@@ -7555,14 +7836,14 @@
       <c r="U6" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="204"/>
-      <c r="W6" s="207" t="s">
+      <c r="V6" s="207"/>
+      <c r="W6" s="210" t="s">
         <v>171</v>
       </c>
       <c r="X6" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="213">
         <v>2</v>
       </c>
       <c r="Z6" s="183"/>
@@ -7608,14 +7889,14 @@
       <c r="O7" s="184"/>
       <c r="P7" s="184"/>
       <c r="Q7" s="202"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
       <c r="T7" s="202"/>
       <c r="U7" s="202"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="211"/>
       <c r="X7" s="202"/>
-      <c r="Y7" s="211"/>
+      <c r="Y7" s="214"/>
       <c r="Z7" s="184"/>
       <c r="AA7" s="184"/>
       <c r="AB7" s="184"/>
@@ -7656,14 +7937,14 @@
       <c r="O8" s="184"/>
       <c r="P8" s="184"/>
       <c r="Q8" s="202"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
       <c r="T8" s="202"/>
       <c r="U8" s="202"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="208"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="211"/>
       <c r="X8" s="202"/>
-      <c r="Y8" s="211"/>
+      <c r="Y8" s="214"/>
       <c r="Z8" s="184"/>
       <c r="AA8" s="184"/>
       <c r="AB8" s="184"/>
@@ -7704,14 +7985,14 @@
       <c r="O9" s="184"/>
       <c r="P9" s="184"/>
       <c r="Q9" s="202"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
       <c r="T9" s="202"/>
       <c r="U9" s="202"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="208"/>
+      <c r="V9" s="208"/>
+      <c r="W9" s="211"/>
       <c r="X9" s="202"/>
-      <c r="Y9" s="211"/>
+      <c r="Y9" s="214"/>
       <c r="Z9" s="184"/>
       <c r="AA9" s="184"/>
       <c r="AB9" s="184"/>
@@ -7752,14 +8033,14 @@
       <c r="O10" s="184"/>
       <c r="P10" s="184"/>
       <c r="Q10" s="202"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
       <c r="T10" s="202"/>
       <c r="U10" s="202"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="211"/>
       <c r="X10" s="202"/>
-      <c r="Y10" s="211"/>
+      <c r="Y10" s="214"/>
       <c r="Z10" s="184"/>
       <c r="AA10" s="184"/>
       <c r="AB10" s="184"/>
@@ -7800,14 +8081,14 @@
       <c r="O11" s="184"/>
       <c r="P11" s="184"/>
       <c r="Q11" s="202"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
       <c r="T11" s="202"/>
       <c r="U11" s="202"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="208"/>
+      <c r="V11" s="208"/>
+      <c r="W11" s="211"/>
       <c r="X11" s="202"/>
-      <c r="Y11" s="211"/>
+      <c r="Y11" s="214"/>
       <c r="Z11" s="184"/>
       <c r="AA11" s="184"/>
       <c r="AB11" s="184"/>
@@ -7848,14 +8129,14 @@
       <c r="O12" s="184"/>
       <c r="P12" s="184"/>
       <c r="Q12" s="202"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
       <c r="T12" s="202"/>
       <c r="U12" s="202"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="208"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="211"/>
       <c r="X12" s="202"/>
-      <c r="Y12" s="211"/>
+      <c r="Y12" s="214"/>
       <c r="Z12" s="184"/>
       <c r="AA12" s="184"/>
       <c r="AB12" s="184"/>
@@ -7896,14 +8177,14 @@
       <c r="O13" s="184"/>
       <c r="P13" s="184"/>
       <c r="Q13" s="202"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
       <c r="T13" s="202"/>
       <c r="U13" s="202"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="208"/>
+      <c r="V13" s="208"/>
+      <c r="W13" s="211"/>
       <c r="X13" s="202"/>
-      <c r="Y13" s="211"/>
+      <c r="Y13" s="214"/>
       <c r="Z13" s="184"/>
       <c r="AA13" s="184"/>
       <c r="AB13" s="184"/>
@@ -7944,14 +8225,14 @@
       <c r="O14" s="185"/>
       <c r="P14" s="185"/>
       <c r="Q14" s="203"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
+      <c r="R14" s="206"/>
+      <c r="S14" s="206"/>
       <c r="T14" s="203"/>
       <c r="U14" s="203"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="209"/>
+      <c r="V14" s="209"/>
+      <c r="W14" s="212"/>
       <c r="X14" s="203"/>
-      <c r="Y14" s="212"/>
+      <c r="Y14" s="215"/>
       <c r="Z14" s="185"/>
       <c r="AA14" s="185"/>
       <c r="AB14" s="185"/>
@@ -7989,7 +8270,7 @@
       <c r="L15" s="118"/>
       <c r="M15" s="118"/>
       <c r="N15" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O15" s="121"/>
       <c r="P15" s="121"/>
@@ -8055,7 +8336,7 @@
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
       <c r="N16" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O16" s="121"/>
       <c r="P16" s="121"/>
@@ -8157,6 +8438,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC6:AC14"/>
+    <mergeCell ref="U6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="X6:X14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -8169,13 +8457,6 @@
     <mergeCell ref="T6:T14"/>
     <mergeCell ref="AA6:AA14"/>
     <mergeCell ref="AB6:AB14"/>
-    <mergeCell ref="AC6:AC14"/>
-    <mergeCell ref="U6:U14"/>
-    <mergeCell ref="V6:V14"/>
-    <mergeCell ref="W6:W14"/>
-    <mergeCell ref="X6:X14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8184,7 +8465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8192,10 +8473,10 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -8374,7 +8655,7 @@
       <c r="L4" s="126"/>
       <c r="M4" s="126"/>
       <c r="N4" s="127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O4" s="119"/>
       <c r="P4" s="119"/>
@@ -8382,10 +8663,10 @@
       <c r="R4" s="128"/>
       <c r="S4" s="128"/>
       <c r="T4" s="119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V4" s="118"/>
       <c r="W4" s="118"/>
@@ -8415,7 +8696,7 @@
       <c r="L5" s="126"/>
       <c r="M5" s="126"/>
       <c r="N5" s="127" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O5" s="119"/>
       <c r="P5" s="119"/>
@@ -8423,10 +8704,10 @@
       <c r="R5" s="128"/>
       <c r="S5" s="128"/>
       <c r="T5" s="119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U5" s="118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V5" s="118"/>
       <c r="W5" s="118"/>
@@ -8472,17 +8753,17 @@
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
       <c r="N6" s="189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O6" s="183"/>
       <c r="P6" s="183"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="213" t="s">
+      <c r="R6" s="204" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="204" t="s">
         <v>187</v>
       </c>
       <c r="T6" s="201" t="s">
@@ -8491,14 +8772,14 @@
       <c r="U6" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="204"/>
-      <c r="W6" s="207" t="s">
+      <c r="V6" s="207"/>
+      <c r="W6" s="210" t="s">
         <v>171</v>
       </c>
       <c r="X6" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="213">
         <v>2</v>
       </c>
       <c r="Z6" s="183"/>
@@ -8544,14 +8825,14 @@
       <c r="O7" s="184"/>
       <c r="P7" s="184"/>
       <c r="Q7" s="202"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
       <c r="T7" s="202"/>
       <c r="U7" s="202"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="211"/>
       <c r="X7" s="202"/>
-      <c r="Y7" s="211"/>
+      <c r="Y7" s="214"/>
       <c r="Z7" s="184"/>
       <c r="AA7" s="184"/>
       <c r="AB7" s="184"/>
@@ -8592,14 +8873,14 @@
       <c r="O8" s="184"/>
       <c r="P8" s="184"/>
       <c r="Q8" s="202"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
       <c r="T8" s="202"/>
       <c r="U8" s="202"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="208"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="211"/>
       <c r="X8" s="202"/>
-      <c r="Y8" s="211"/>
+      <c r="Y8" s="214"/>
       <c r="Z8" s="184"/>
       <c r="AA8" s="184"/>
       <c r="AB8" s="184"/>
@@ -8640,14 +8921,14 @@
       <c r="O9" s="184"/>
       <c r="P9" s="184"/>
       <c r="Q9" s="202"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
       <c r="T9" s="202"/>
       <c r="U9" s="202"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="208"/>
+      <c r="V9" s="208"/>
+      <c r="W9" s="211"/>
       <c r="X9" s="202"/>
-      <c r="Y9" s="211"/>
+      <c r="Y9" s="214"/>
       <c r="Z9" s="184"/>
       <c r="AA9" s="184"/>
       <c r="AB9" s="184"/>
@@ -8688,14 +8969,14 @@
       <c r="O10" s="184"/>
       <c r="P10" s="184"/>
       <c r="Q10" s="202"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
       <c r="T10" s="202"/>
       <c r="U10" s="202"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="211"/>
       <c r="X10" s="202"/>
-      <c r="Y10" s="211"/>
+      <c r="Y10" s="214"/>
       <c r="Z10" s="184"/>
       <c r="AA10" s="184"/>
       <c r="AB10" s="184"/>
@@ -8736,14 +9017,14 @@
       <c r="O11" s="184"/>
       <c r="P11" s="184"/>
       <c r="Q11" s="202"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
       <c r="T11" s="202"/>
       <c r="U11" s="202"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="208"/>
+      <c r="V11" s="208"/>
+      <c r="W11" s="211"/>
       <c r="X11" s="202"/>
-      <c r="Y11" s="211"/>
+      <c r="Y11" s="214"/>
       <c r="Z11" s="184"/>
       <c r="AA11" s="184"/>
       <c r="AB11" s="184"/>
@@ -8784,14 +9065,14 @@
       <c r="O12" s="184"/>
       <c r="P12" s="184"/>
       <c r="Q12" s="202"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
       <c r="T12" s="202"/>
       <c r="U12" s="202"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="208"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="211"/>
       <c r="X12" s="202"/>
-      <c r="Y12" s="211"/>
+      <c r="Y12" s="214"/>
       <c r="Z12" s="184"/>
       <c r="AA12" s="184"/>
       <c r="AB12" s="184"/>
@@ -8832,14 +9113,14 @@
       <c r="O13" s="184"/>
       <c r="P13" s="184"/>
       <c r="Q13" s="202"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
       <c r="T13" s="202"/>
       <c r="U13" s="202"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="208"/>
+      <c r="V13" s="208"/>
+      <c r="W13" s="211"/>
       <c r="X13" s="202"/>
-      <c r="Y13" s="211"/>
+      <c r="Y13" s="214"/>
       <c r="Z13" s="184"/>
       <c r="AA13" s="184"/>
       <c r="AB13" s="184"/>
@@ -8880,14 +9161,14 @@
       <c r="O14" s="185"/>
       <c r="P14" s="185"/>
       <c r="Q14" s="203"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
+      <c r="R14" s="206"/>
+      <c r="S14" s="206"/>
       <c r="T14" s="203"/>
       <c r="U14" s="203"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="209"/>
+      <c r="V14" s="209"/>
+      <c r="W14" s="212"/>
       <c r="X14" s="203"/>
-      <c r="Y14" s="212"/>
+      <c r="Y14" s="215"/>
       <c r="Z14" s="185"/>
       <c r="AA14" s="185"/>
       <c r="AB14" s="185"/>
@@ -8925,7 +9206,7 @@
       <c r="L15" s="118"/>
       <c r="M15" s="118"/>
       <c r="N15" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O15" s="121"/>
       <c r="P15" s="121"/>
@@ -8991,7 +9272,7 @@
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
       <c r="N16" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O16" s="121"/>
       <c r="P16" s="121"/>
@@ -9093,6 +9374,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AA6:AA14"/>
+    <mergeCell ref="AB6:AB14"/>
+    <mergeCell ref="AC6:AC14"/>
     <mergeCell ref="X6:X14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -9109,9 +9393,6 @@
     <mergeCell ref="R6:R14"/>
     <mergeCell ref="Y6:Y14"/>
     <mergeCell ref="Z6:Z14"/>
-    <mergeCell ref="AA6:AA14"/>
-    <mergeCell ref="AB6:AB14"/>
-    <mergeCell ref="AC6:AC14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9120,286 +9401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:Y23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:25">
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-    </row>
-    <row r="2" spans="2:25">
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-    </row>
-    <row r="3" spans="2:25" ht="18">
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="6" spans="2:25">
-      <c r="B6" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="25.5">
-      <c r="B7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="25.5">
-      <c r="B8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" ht="25.5">
-      <c r="B9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="25.5">
-      <c r="B10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="25.5">
-      <c r="B11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="25.5">
-      <c r="B12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="25.5">
-      <c r="B13" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="25.5">
-      <c r="B14" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" ht="25.5">
-      <c r="B15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="25.5">
-      <c r="B16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="25.5">
-      <c r="B17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="25.5">
-      <c r="B18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="25.5">
-      <c r="B19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="25.5">
-      <c r="B20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="25.5">
-      <c r="B21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="25.5">
-      <c r="B22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="25.5">
-      <c r="B23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -9448,15 +9450,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9471,25 +9507,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -2347,6 +2347,24 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,15 +2374,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,14 +2413,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2428,21 +2458,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2461,27 +2482,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2503,6 +2503,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2512,24 +2530,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2566,6 +2566,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2574,33 +2601,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2770,7 +2770,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2793,14 +2793,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2843,7 +2843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2866,14 +2866,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3191,7 +3191,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3246,28 +3246,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="139"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="145"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
@@ -3276,17 +3276,17 @@
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143" t="s">
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
@@ -3295,24 +3295,24 @@
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148" t="s">
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="134"/>
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
@@ -3321,9 +3321,9 @@
     <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="134"/>
       <c r="H14" s="135"/>
       <c r="I14" s="135"/>
@@ -3332,9 +3332,9 @@
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
       <c r="G15" s="134"/>
       <c r="H15" s="135"/>
       <c r="I15" s="135"/>
@@ -3343,9 +3343,9 @@
     <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
       <c r="G16" s="134"/>
       <c r="H16" s="135"/>
       <c r="I16" s="135"/>
@@ -3354,27 +3354,34 @@
     <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3385,13 +3392,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3709,17 +3709,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
@@ -3728,41 +3728,41 @@
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
@@ -3776,17 +3776,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
@@ -3798,16 +3798,16 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="165"/>
-      <c r="G12" s="163" t="s">
+      <c r="F12" s="172"/>
+      <c r="G12" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="77" t="s">
@@ -3817,12 +3817,12 @@
       <c r="D13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="2"/>
@@ -3836,11 +3836,11 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="39" t="s">
@@ -3893,17 +3893,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="44" t="s">
@@ -3915,62 +3915,62 @@
       <c r="D23" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160" t="s">
+      <c r="F23" s="169"/>
+      <c r="G23" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="85" t="s">
@@ -3982,16 +3982,16 @@
       <c r="D29" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="173" t="s">
+      <c r="E29" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="174"/>
-      <c r="G29" s="173" t="s">
+      <c r="F29" s="159"/>
+      <c r="G29" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="174"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="87" t="s">
@@ -3999,23 +3999,15 @@
       </c>
       <c r="C30" s="88"/>
       <c r="D30" s="89"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="B6:J6"/>
@@ -4032,6 +4024,14 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -6769,7 +6769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6992,11 +6992,11 @@
       </c>
       <c r="L4" s="118"/>
       <c r="M4" s="118"/>
-      <c r="N4" s="189" t="s">
+      <c r="N4" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="192" t="s">
         <v>120</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="U4" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="183"/>
+      <c r="V4" s="189"/>
       <c r="W4" s="198" t="s">
         <v>171</v>
       </c>
@@ -7022,10 +7022,10 @@
       <c r="Y4" s="198">
         <v>2</v>
       </c>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="186"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="189"/>
+      <c r="AC4" s="183"/>
       <c r="AD4" s="117"/>
       <c r="AE4" s="117"/>
       <c r="AF4" s="117"/>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="L5" s="106"/>
       <c r="M5" s="107"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
       <c r="Q5" s="193"/>
       <c r="R5" s="196"/>
       <c r="S5" s="196"/>
       <c r="T5" s="193"/>
       <c r="U5" s="193"/>
-      <c r="V5" s="184"/>
+      <c r="V5" s="190"/>
       <c r="W5" s="199"/>
       <c r="X5" s="193"/>
       <c r="Y5" s="199"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="187"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="184"/>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="58" t="s">
@@ -7109,22 +7109,22 @@
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="107"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
       <c r="Q6" s="193"/>
       <c r="R6" s="196"/>
       <c r="S6" s="196"/>
       <c r="T6" s="193"/>
       <c r="U6" s="193"/>
-      <c r="V6" s="184"/>
+      <c r="V6" s="190"/>
       <c r="W6" s="199"/>
       <c r="X6" s="193"/>
       <c r="Y6" s="199"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="187"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="190"/>
+      <c r="AC6" s="184"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="58" t="s">
@@ -7157,22 +7157,22 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="193"/>
       <c r="R7" s="196"/>
       <c r="S7" s="196"/>
       <c r="T7" s="193"/>
       <c r="U7" s="193"/>
-      <c r="V7" s="184"/>
+      <c r="V7" s="190"/>
       <c r="W7" s="199"/>
       <c r="X7" s="193"/>
       <c r="Y7" s="199"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -7205,22 +7205,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="196"/>
       <c r="S8" s="196"/>
       <c r="T8" s="193"/>
       <c r="U8" s="193"/>
-      <c r="V8" s="184"/>
+      <c r="V8" s="190"/>
       <c r="W8" s="199"/>
       <c r="X8" s="193"/>
       <c r="Y8" s="199"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -7253,22 +7253,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="193"/>
       <c r="R9" s="196"/>
       <c r="S9" s="196"/>
       <c r="T9" s="193"/>
       <c r="U9" s="193"/>
-      <c r="V9" s="184"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="199"/>
       <c r="X9" s="193"/>
       <c r="Y9" s="199"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -7301,22 +7301,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="196"/>
       <c r="S10" s="196"/>
       <c r="T10" s="193"/>
       <c r="U10" s="193"/>
-      <c r="V10" s="184"/>
+      <c r="V10" s="190"/>
       <c r="W10" s="199"/>
       <c r="X10" s="193"/>
       <c r="Y10" s="199"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="58" t="s">
@@ -7349,22 +7349,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="193"/>
       <c r="R11" s="196"/>
       <c r="S11" s="196"/>
       <c r="T11" s="193"/>
       <c r="U11" s="193"/>
-      <c r="V11" s="184"/>
+      <c r="V11" s="190"/>
       <c r="W11" s="199"/>
       <c r="X11" s="193"/>
       <c r="Y11" s="199"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -7397,22 +7397,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
       <c r="Q12" s="194"/>
       <c r="R12" s="197"/>
       <c r="S12" s="197"/>
       <c r="T12" s="194"/>
       <c r="U12" s="194"/>
-      <c r="V12" s="185"/>
+      <c r="V12" s="191"/>
       <c r="W12" s="200"/>
       <c r="X12" s="194"/>
       <c r="Y12" s="200"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="188"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="185"/>
     </row>
     <row r="13" spans="1:32" ht="84">
       <c r="B13" s="58" t="s">
@@ -7482,6 +7482,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="AC4:AC12"/>
     <mergeCell ref="N4:N12"/>
     <mergeCell ref="O4:O12"/>
@@ -7496,11 +7501,6 @@
     <mergeCell ref="X4:X12"/>
     <mergeCell ref="Y4:Y12"/>
     <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7816,18 +7816,18 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="186" t="s">
         <v>196</v>
       </c>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="204" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="204" t="s">
+      <c r="R6" s="213" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="213" t="s">
         <v>187</v>
       </c>
       <c r="T6" s="201" t="s">
@@ -7836,20 +7836,20 @@
       <c r="U6" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="207"/>
-      <c r="W6" s="210" t="s">
+      <c r="V6" s="204"/>
+      <c r="W6" s="207" t="s">
         <v>171</v>
       </c>
       <c r="X6" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="213">
+      <c r="Y6" s="210">
         <v>2</v>
       </c>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="186"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="183"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -7885,22 +7885,22 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="202"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
       <c r="T7" s="202"/>
       <c r="U7" s="202"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="211"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="208"/>
       <c r="X7" s="202"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -7933,22 +7933,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="202"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
       <c r="T8" s="202"/>
       <c r="U8" s="202"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="211"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="208"/>
       <c r="X8" s="202"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -7981,22 +7981,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="202"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
       <c r="T9" s="202"/>
       <c r="U9" s="202"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="211"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="208"/>
       <c r="X9" s="202"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="202"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
+      <c r="R10" s="214"/>
+      <c r="S10" s="214"/>
       <c r="T10" s="202"/>
       <c r="U10" s="202"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="211"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="208"/>
       <c r="X10" s="202"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -8077,22 +8077,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="202"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
+      <c r="R11" s="214"/>
+      <c r="S11" s="214"/>
       <c r="T11" s="202"/>
       <c r="U11" s="202"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="211"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="208"/>
       <c r="X11" s="202"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
       <c r="Q12" s="202"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
       <c r="T12" s="202"/>
       <c r="U12" s="202"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="211"/>
+      <c r="V12" s="205"/>
+      <c r="W12" s="208"/>
       <c r="X12" s="202"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="187"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="184"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -8173,22 +8173,22 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
       <c r="Q13" s="202"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
       <c r="T13" s="202"/>
       <c r="U13" s="202"/>
-      <c r="V13" s="208"/>
-      <c r="W13" s="211"/>
+      <c r="V13" s="205"/>
+      <c r="W13" s="208"/>
       <c r="X13" s="202"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="187"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="184"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -8221,22 +8221,22 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
       <c r="Q14" s="203"/>
-      <c r="R14" s="206"/>
-      <c r="S14" s="206"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
       <c r="T14" s="203"/>
       <c r="U14" s="203"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="212"/>
+      <c r="V14" s="206"/>
+      <c r="W14" s="209"/>
       <c r="X14" s="203"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="188"/>
+      <c r="Y14" s="212"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="185"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -8438,13 +8438,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC6:AC14"/>
-    <mergeCell ref="U6:U14"/>
-    <mergeCell ref="V6:V14"/>
-    <mergeCell ref="W6:W14"/>
-    <mergeCell ref="X6:X14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -8457,6 +8450,13 @@
     <mergeCell ref="T6:T14"/>
     <mergeCell ref="AA6:AA14"/>
     <mergeCell ref="AB6:AB14"/>
+    <mergeCell ref="AC6:AC14"/>
+    <mergeCell ref="U6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="X6:X14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8752,18 +8752,18 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="204" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="204" t="s">
+      <c r="R6" s="213" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="213" t="s">
         <v>187</v>
       </c>
       <c r="T6" s="201" t="s">
@@ -8772,20 +8772,20 @@
       <c r="U6" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="207"/>
-      <c r="W6" s="210" t="s">
+      <c r="V6" s="204"/>
+      <c r="W6" s="207" t="s">
         <v>171</v>
       </c>
       <c r="X6" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="213">
+      <c r="Y6" s="210">
         <v>2</v>
       </c>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="186"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="183"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -8821,22 +8821,22 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="202"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
       <c r="T7" s="202"/>
       <c r="U7" s="202"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="211"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="208"/>
       <c r="X7" s="202"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -8869,22 +8869,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="202"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
       <c r="T8" s="202"/>
       <c r="U8" s="202"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="211"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="208"/>
       <c r="X8" s="202"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -8917,22 +8917,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="202"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
       <c r="T9" s="202"/>
       <c r="U9" s="202"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="211"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="208"/>
       <c r="X9" s="202"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -8965,22 +8965,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="202"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
+      <c r="R10" s="214"/>
+      <c r="S10" s="214"/>
       <c r="T10" s="202"/>
       <c r="U10" s="202"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="211"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="208"/>
       <c r="X10" s="202"/>
-      <c r="Y10" s="214"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -9013,22 +9013,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="202"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
+      <c r="R11" s="214"/>
+      <c r="S11" s="214"/>
       <c r="T11" s="202"/>
       <c r="U11" s="202"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="211"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="208"/>
       <c r="X11" s="202"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -9061,22 +9061,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
       <c r="Q12" s="202"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
       <c r="T12" s="202"/>
       <c r="U12" s="202"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="211"/>
+      <c r="V12" s="205"/>
+      <c r="W12" s="208"/>
       <c r="X12" s="202"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="187"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="184"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -9109,22 +9109,22 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
       <c r="Q13" s="202"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
       <c r="T13" s="202"/>
       <c r="U13" s="202"/>
-      <c r="V13" s="208"/>
-      <c r="W13" s="211"/>
+      <c r="V13" s="205"/>
+      <c r="W13" s="208"/>
       <c r="X13" s="202"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="187"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="184"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -9157,22 +9157,22 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
       <c r="Q14" s="203"/>
-      <c r="R14" s="206"/>
-      <c r="S14" s="206"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
       <c r="T14" s="203"/>
       <c r="U14" s="203"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="212"/>
+      <c r="V14" s="206"/>
+      <c r="W14" s="209"/>
       <c r="X14" s="203"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="188"/>
+      <c r="Y14" s="212"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="185"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -9374,6 +9374,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
     <mergeCell ref="AA6:AA14"/>
     <mergeCell ref="AB6:AB14"/>
     <mergeCell ref="AC6:AC14"/>
@@ -9390,9 +9393,6 @@
     <mergeCell ref="O6:O14"/>
     <mergeCell ref="P6:P14"/>
     <mergeCell ref="Q6:Q14"/>
-    <mergeCell ref="R6:R14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9402,6 +9402,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -9450,49 +9469,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9507,10 +9492,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>